--- a/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
+++ b/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREPO\bp4mc2\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREPO\bp4mc2-dcat\dcat-ap-eu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="331">
   <si>
     <t>uri schema</t>
   </si>
@@ -1016,6 +1016,9 @@
   </si>
   <si>
     <t>seeAlso</t>
+  </si>
+  <si>
+    <t>http://spdx.org/rdf/terms#{range}</t>
   </si>
 </sst>
 </file>
@@ -1396,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,34 +1981,48 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>325</v>
+        <v>330</v>
+      </c>
+      <c r="F41" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D42" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" t="s">
+        <v>327</v>
+      </c>
+      <c r="D43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>313</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>306</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>308</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2019,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
+++ b/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
@@ -14,19 +14,20 @@
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
     <sheet name="Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="Classes" sheetId="3" r:id="rId3"/>
-    <sheet name="Predicates" sheetId="4" r:id="rId4"/>
-    <sheet name="Vocabularies" sheetId="5" r:id="rId5"/>
-    <sheet name="Stereotypes" sheetId="6" r:id="rId6"/>
-    <sheet name="Waardelijsten" sheetId="8" r:id="rId7"/>
-    <sheet name="Waarden" sheetId="7" r:id="rId8"/>
+    <sheet name="Profile" sheetId="9" r:id="rId3"/>
+    <sheet name="Classes" sheetId="3" r:id="rId4"/>
+    <sheet name="Predicates" sheetId="4" r:id="rId5"/>
+    <sheet name="Vocabularies" sheetId="5" r:id="rId6"/>
+    <sheet name="Stereotypes" sheetId="6" r:id="rId7"/>
+    <sheet name="Waardelijsten" sheetId="8" r:id="rId8"/>
+    <sheet name="Waarden" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="344">
   <si>
     <t>uri schema</t>
   </si>
@@ -1019,6 +1020,45 @@
   </si>
   <si>
     <t>http://spdx.org/rdf/terms#{range}</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>http://linkeddata.ordina.nl/profiel#</t>
+  </si>
+  <si>
+    <t>conforms</t>
+  </si>
+  <si>
+    <t>{conforms}</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/dcmitype/{classname}</t>
+  </si>
+  <si>
+    <t>dctype</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>DCAT-AP-EU-v1.1</t>
+  </si>
+  <si>
+    <t>DCAT Application profile EU version 1.1</t>
+  </si>
+  <si>
+    <t>https://joinup.ec.europa.eu/release/dcat-ap-v11</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,103 +1492,103 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" t="s">
-        <v>123</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>307</v>
+      </c>
+      <c r="C9" t="s">
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
+        <v>316</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1559,10 +1599,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1573,10 +1613,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1587,10 +1627,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1601,38 +1641,35 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,10 +1680,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,10 +1694,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,11 +1721,11 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>101</v>
+      <c r="D19" t="s">
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,10 +1736,10 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1712,11 +1749,11 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
-        <v>147</v>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,52 +1761,52 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1779,11 +1816,11 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>252</v>
+      <c r="D26" t="s">
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1794,10 +1831,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,10 +1845,10 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1821,11 +1858,11 @@
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="D29" t="s">
-        <v>256</v>
+      <c r="D29" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,10 +1873,10 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1850,10 +1887,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,10 +1898,13 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>256</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,10 +1912,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>300</v>
+      </c>
+      <c r="E33" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,13 +1926,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
+        <v>301</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1897,13 +1940,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1911,13 +1951,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,10 +1965,10 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1942,10 +1979,10 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,11 +1992,11 @@
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>299</v>
+      <c r="D39" t="s">
+        <v>64</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1970,10 +2007,10 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="F40" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1984,10 +2021,10 @@
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,34 +2032,76 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
-      </c>
-      <c r="D42" t="s">
-        <v>325</v>
+        <v>45</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>328</v>
+        <v>302</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>330</v>
+      </c>
+      <c r="F44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" t="s">
+        <v>327</v>
+      </c>
+      <c r="D46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>313</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>306</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D47" t="s">
         <v>308</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2034,18 +2113,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2074,160 +2151,168 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>338</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,13 +2320,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>158</v>
+      </c>
+      <c r="F12" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,16 +2337,16 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2266,13 +2354,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2280,88 +2371,91 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
         <v>156</v>
       </c>
-      <c r="D19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
       <c r="D20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>306</v>
@@ -2370,68 +2464,172 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>313</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30" t="s">
         <v>318</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D30" t="s">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>313</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D31" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>313</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B32" t="s">
         <v>306</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D32" t="s">
         <v>323</v>
       </c>
     </row>
@@ -2441,6 +2639,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2850,7 +3088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
@@ -5239,7 +5477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -5346,7 +5584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -5397,7 +5635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5432,7 +5670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>

--- a/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
+++ b/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="512">
   <si>
     <t>uri schema</t>
   </si>
@@ -227,24 +227,6 @@
     <t>http://www.w3.org/2006/vcard/ns#{classname}</t>
   </si>
   <si>
-    <t>Email adres</t>
-  </si>
-  <si>
-    <t>hasEmail</t>
-  </si>
-  <si>
-    <t>Emailaddress</t>
-  </si>
-  <si>
-    <t>Postaddress</t>
-  </si>
-  <si>
-    <t>Post adres</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>http://www.w3.org/2006/vcard/ns#{propertyname}</t>
   </si>
   <si>
@@ -896,9 +878,6 @@
     <t>anyURI</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>start date time</t>
   </si>
   <si>
@@ -1059,6 +1038,531 @@
   </si>
   <si>
     <t>https://joinup.ec.europa.eu/release/dcat-ap-v11</t>
+  </si>
+  <si>
+    <t>conformance</t>
+  </si>
+  <si>
+    <t>Violation</t>
+  </si>
+  <si>
+    <t>Letterlijke waarde</t>
+  </si>
+  <si>
+    <t>An entity that is associated with Catalogues and/or Datasets. If the Agent is an organisation, the use of the Organization Ontology is recommended. See section 7 for a discussion on Agent roles.</t>
+  </si>
+  <si>
+    <t>A catalogue or repository that hosts the Datasets being described.</t>
+  </si>
+  <si>
+    <t>A conceptual entity that represents the information published.</t>
+  </si>
+  <si>
+    <t>A literal value such as a string or integer; Literals may be typed, e.g. as a date according to xsd:date. Literals that contain human-readable text have an optional language tag as defined by BCP 47.</t>
+  </si>
+  <si>
+    <t>Anything described by RDF.</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>A subject of a Dataset.</t>
+  </si>
+  <si>
+    <t>A concept collection (e.g. controlled vocabulary) in which the Category is defined.</t>
+  </si>
+  <si>
+    <t>A physical embodiment of the Dataset in a particular format.</t>
+  </si>
+  <si>
+    <t>A legal document giving official permission to do something with a resource.</t>
+  </si>
+  <si>
+    <t>A description of a Dataset’s entry in the Catalogue.</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>A value that allows the contents of a file to be authenticated. This class allows the results of a variety of checksum and cryptographic message digest algorithms to be represented.</t>
+  </si>
+  <si>
+    <t>A textual resource intended for human consumption that contains information, e.g. a web page about a Dataset.</t>
+  </si>
+  <si>
+    <t>A rate at which something recurs, e.g. the publication of a Dataset.</t>
+  </si>
+  <si>
+    <t>An identifier in a particular context, consisting of the string that is the identifier; an optional identifier for the identifier scheme; an optional identifier for the version of the identifier scheme; an optional identifier for the agency that manages the identifier scheme</t>
+  </si>
+  <si>
+    <t>A description following the vCard specification, e.g. to provide telephone number and e-mail address for a contact point. Note that the class Kind is the parent class for the four explicit types of vCards (Individual, Organization, Location, Group).</t>
+  </si>
+  <si>
+    <t>A system of signs, symbols, sounds, gestures, or rules used in communication, e.g. a language</t>
+  </si>
+  <si>
+    <t>A spatial region or named place. It can be represented using a controlled vocabulary or with geographic coordinates. In the latter case, the use of the Core Location Vocabulary is recommended, following the approach described in the GeoDCAT-AP specification.</t>
+  </si>
+  <si>
+    <t>A media type or extent, e.g. the format of a computer file</t>
+  </si>
+  <si>
+    <t>An interval of time that is named or defined by its start and end dates.</t>
+  </si>
+  <si>
+    <t>A type of organisation that acts as a publisher</t>
+  </si>
+  <si>
+    <t>A statement about the intellectual property rights (IPR) held in or over a resource, a legal document giving official permission to do something with a resource, or a statement about access rights.</t>
+  </si>
+  <si>
+    <t>A standard or other specification to which a Dataset or Distribution conforms</t>
+  </si>
+  <si>
+    <t>Standaard</t>
+  </si>
+  <si>
+    <t>An indication of the maturity of a Distribution or the type of change of a Catalogue Record.</t>
+  </si>
+  <si>
+    <t>Provenance Statement</t>
+  </si>
+  <si>
+    <t>Herkomstinformatie</t>
+  </si>
+  <si>
+    <t>A statement of any changes in ownership and custody of a resource since its creation that are significant for its authenticity, integrity, and interpretation</t>
+  </si>
+  <si>
+    <t>&lt;Not mentioned in the class section of DCAT&gt;</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/{property}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/modeling/doc#{profile}</t>
+  </si>
+  <si>
+    <t>isPrimaryTopicOf</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/shacl#{conformance}</t>
+  </si>
+  <si>
+    <t>Datasettype</t>
+  </si>
+  <si>
+    <t>This property links the Catalogue Record to the Dataset described in the record.</t>
+  </si>
+  <si>
+    <t>This property contains the most recent date on which the Catalogue entry was changed or modified.</t>
+  </si>
+  <si>
+    <t>This property refers to an Application Profile that the Dataset’s metadata conforms to</t>
+  </si>
+  <si>
+    <t>This property refers to the type of the latest revision of a Dataset's entry in the Catalogue. It MUST take one of the values :created, :updated or :deleted depending on whether this latest revision is a result of a creation, update or deletion.</t>
+  </si>
+  <si>
+    <t>This property contains the date on which the description of the Dataset was included in the Catalogue.</t>
+  </si>
+  <si>
+    <t>This property contains a free-text account of the record. This property can be repeated for parallel language versions of the description.</t>
+  </si>
+  <si>
+    <t>This property refers to a language used in the textual metadata describing titles, descriptions, etc. of the Dataset. This property can be repeated if the metadata is provided in multiple languages.</t>
+  </si>
+  <si>
+    <t>This property refers to the original metadata that was used in creating metadata for the Dataset</t>
+  </si>
+  <si>
+    <t>This property contains a name given to the Catalogue Record. This property can be repeated for parallel language versions of the name.</t>
+  </si>
+  <si>
+    <t>This property links the Catalogue with a Dataset that is part of the Catalogue.</t>
+  </si>
+  <si>
+    <t>This property contains a free-text account of the Catalogue. This property can be repeated for parallel language versions of the description. For further information on multilingual issues, please refer to section 8.</t>
+  </si>
+  <si>
+    <t>This property refers to an entity (organisation) responsible for making the Catalogue available.</t>
+  </si>
+  <si>
+    <t>This property contains a name given to the Catalogue. This property can be repeated for parallel language versions of the name.</t>
+  </si>
+  <si>
+    <t>This property refers to a web page that acts as the main page for the Catalogue.</t>
+  </si>
+  <si>
+    <t>This property refers to a language used in the textual metadata describing titles, descriptions, etc. of the Datasets in the Catalogue. This property can be repeated if the metadata is provided in multiple languages.</t>
+  </si>
+  <si>
+    <t>This property refers to the licence under which the Catalogue can be used or reused.</t>
+  </si>
+  <si>
+    <t>This property contains the date of formal issuance (e.g., publication) of the Catalogue.</t>
+  </si>
+  <si>
+    <t>This property refers to a knowledge organization system used to classify the Catalogue's Datasets.</t>
+  </si>
+  <si>
+    <t>This property contains the most recent date on which the Catalogue was modified.</t>
+  </si>
+  <si>
+    <t>This property refers to a related Catalogue that is part of the described Catalogue</t>
+  </si>
+  <si>
+    <t>This property refers to a related Catalogue in which the described Catalogue is physically or logically included.</t>
+  </si>
+  <si>
+    <t>This property refers to a Catalogue Record that is part of the Catalogue</t>
+  </si>
+  <si>
+    <t>This property refers to a statement that specifies rights associated with the Catalogue.</t>
+  </si>
+  <si>
+    <t>This property refers to a geographical area covered by the Catalogue.</t>
+  </si>
+  <si>
+    <t>This property contains a free-text account of the Dataset. This property can be repeated for parallel language versions of the description.</t>
+  </si>
+  <si>
+    <t>This property contains a name given to the Dataset. This property can be repeated for parallel language versions of the name.</t>
+  </si>
+  <si>
+    <t>This property contains contact information that can be used for sending comments about the Dataset.</t>
+  </si>
+  <si>
+    <t>This property links the Dataset to an available Distribution.</t>
+  </si>
+  <si>
+    <t>This property contains a keyword or tag describing the Dataset.</t>
+  </si>
+  <si>
+    <t>This property refers to an entity (organisation) responsible for making the Dataset available.</t>
+  </si>
+  <si>
+    <t>This property refers to a category of the Dataset. A Dataset may be associated with multiple themes.</t>
+  </si>
+  <si>
+    <t>This property refers to information that indicates whether the Dataset is open data, has access restrictions or is not public. A controlled vocabulary with three members (:public, :restricted, :non-public) will be created and maintained by the Publications Office of the EU.</t>
+  </si>
+  <si>
+    <t>This property refers to an implementing rule or other specification.</t>
+  </si>
+  <si>
+    <t>This property refers to a page or document about this Dataset.</t>
+  </si>
+  <si>
+    <t>This property refers to the frequency at which the Dataset is updated.</t>
+  </si>
+  <si>
+    <t>This property refers to a related Dataset that is a version, edition, or adaptation of the described Dataset.</t>
+  </si>
+  <si>
+    <t>This property contains the main identifier for the Dataset, e.g. the URI or other unique identifier in the context of the Catalogue.</t>
+  </si>
+  <si>
+    <t>This property refers to a related Dataset of which the described Dataset is a version, edition, or adaptation.</t>
+  </si>
+  <si>
+    <t>This property refers to a web page that provides access to the Dataset, its Distributions and/or additional information. It is intended to point to a landing page at the original data provider, not to a page on a site of a third party, such as an aggregator.</t>
+  </si>
+  <si>
+    <t>This property refers to a language of the Dataset. This property can be repeated if there are multiple languages in the Dataset.</t>
+  </si>
+  <si>
+    <t>This property refers to a secondary identifier of the Dataset, such as MAST/ADS, DataCite, DOI, EZID or W3ID.</t>
+  </si>
+  <si>
+    <t>This property contains a statement about the lineage of a Dataset.</t>
+  </si>
+  <si>
+    <t>This property refers to a related resource.</t>
+  </si>
+  <si>
+    <t>This property contains the date of formal issuance (e.g., publication) of the Dataset.</t>
+  </si>
+  <si>
+    <t>This property refers to a sample distribution of the dataset</t>
+  </si>
+  <si>
+    <t>This property refers to a related Dataset from which the described Dataset is derived.</t>
+  </si>
+  <si>
+    <t>This property refers to a geographic region that is covered by the Dataset.</t>
+  </si>
+  <si>
+    <t>This property refers to a temporal period that the Dataset covers.</t>
+  </si>
+  <si>
+    <t>This property refers to the type of the Dataset. A controlled vocabulary for the values has not been established.</t>
+  </si>
+  <si>
+    <t>This property contains the most recent date on which the Dataset was changed or modified.</t>
+  </si>
+  <si>
+    <t>This property contains a version number or other version designation of the Dataset.</t>
+  </si>
+  <si>
+    <t>This property contains a description of the differences between this version and a previous version of the Dataset. This property can be repeated for parallel language versions of the version notes.</t>
+  </si>
+  <si>
+    <t>This property contains a URL that gives access to a Distribution of the Dataset. The resource at the access URL may contain information about how to get the Dataset.</t>
+  </si>
+  <si>
+    <t>This property contains a free-text account of the Distribution. This property can be repeated for parallel language versions of the description.</t>
+  </si>
+  <si>
+    <t>This property refers to the file format of the Distribution.</t>
+  </si>
+  <si>
+    <t>This property refers to the licence under which the Distribution is made available.</t>
+  </si>
+  <si>
+    <t>This property contains the size of a Distribution in bytes.</t>
+  </si>
+  <si>
+    <t>This property provides a mechanism that can be used to verify that the contents of a distribution have not changed</t>
+  </si>
+  <si>
+    <t>This property refers to a page or document about this Distribution.</t>
+  </si>
+  <si>
+    <t>This property contains a URL that is a direct link to a downloadable file in a given format.</t>
+  </si>
+  <si>
+    <t>This property refers to a language used in the Distribution. This property can be repeated if the metadata is provided in multiple languages.</t>
+  </si>
+  <si>
+    <t>This property refers to an established schema to which the described Distribution conforms.</t>
+  </si>
+  <si>
+    <t>This property refers to the media type of the Distribution as defined in the official register of media types managed by IANA.</t>
+  </si>
+  <si>
+    <t>This property contains the date of formal issuance (e.g., publication) of the Distribution.</t>
+  </si>
+  <si>
+    <t>This property refers to a statement that specifies rights associated with the Distribution.</t>
+  </si>
+  <si>
+    <t>This property refers to the maturity of the Distribution</t>
+  </si>
+  <si>
+    <t>This property contains a name given to the Distribution. This property can be repeated for parallel language versions of the description.</t>
+  </si>
+  <si>
+    <t>This property contains the most recent date on which the Distribution was changed or modified.</t>
+  </si>
+  <si>
+    <t>This property contains a name of the agent. This property can be repeated for different versions of the name (e.g. the name in different languages)</t>
+  </si>
+  <si>
+    <t>This property refers to a type of the agent that makes the Catalogue or Dataset available</t>
+  </si>
+  <si>
+    <t>This property contains a name of the category scheme. May be repeated for different versions of the name</t>
+  </si>
+  <si>
+    <t>This property contains a preferred label of the category. This property can be repeated for parallel language versions of the label.</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>algorithme</t>
+  </si>
+  <si>
+    <t>This property identifies the algorithm used to produce the subject Checksum. Currently, SHA-1 is the only supported algorithm. It is anticipated that other algorithms will be supported at a later time.</t>
+  </si>
+  <si>
+    <t>checksumValue</t>
+  </si>
+  <si>
+    <t>checksum value</t>
+  </si>
+  <si>
+    <t>hexBinary</t>
+  </si>
+  <si>
+    <t>This property provides a lower case hexadecimal encoded digest value produced using a specific algorithm.</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#{range}</t>
+  </si>
+  <si>
+    <t>Individu</t>
+  </si>
+  <si>
+    <t>Some individual (subclass of Resource), used for range of spdx:algorithm</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#{classname}</t>
+  </si>
+  <si>
+    <t>This property contains a string that is an identifier in the context of the identifier scheme referenced by its datatype.</t>
+  </si>
+  <si>
+    <t>This property refers to a type of licence, e.g. indicating 'public domain' or 'royalties required'.</t>
+  </si>
+  <si>
+    <t>This property contains the start of the period</t>
+  </si>
+  <si>
+    <t>This property contains the end of the period</t>
+  </si>
+  <si>
+    <t>ADMS status vocabulary</t>
+  </si>
+  <si>
+    <t>IANA Media Types</t>
+  </si>
+  <si>
+    <t>DatasetTheme</t>
+  </si>
+  <si>
+    <t>Dataset Theme Vocabulary</t>
+  </si>
+  <si>
+    <t>ThemeTaxonomy</t>
+  </si>
+  <si>
+    <t>MDR Frequency Named Authority List</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/frequency</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/data-theme</t>
+  </si>
+  <si>
+    <t>MDR File Type Named Authority List</t>
+  </si>
+  <si>
+    <t>Filetype</t>
+  </si>
+  <si>
+    <t>MDR Languages Named Authority List</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/language</t>
+  </si>
+  <si>
+    <t>MDR Corporate bodies Named Authority List</t>
+  </si>
+  <si>
+    <t>CorporateBody</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/corporate-body</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>MDR Continents Named Authority List</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/country</t>
+  </si>
+  <si>
+    <t>MDR Countries Named Authority List</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/continent</t>
+  </si>
+  <si>
+    <t>MDR Places Named Authority List</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/place</t>
+  </si>
+  <si>
+    <t>Geonames</t>
+  </si>
+  <si>
+    <t>Changetype</t>
+  </si>
+  <si>
+    <t>ADMS change type vocabulary</t>
+  </si>
+  <si>
+    <t>ADMS publisher type vocabulary</t>
+  </si>
+  <si>
+    <t>Publishertype</t>
+  </si>
+  <si>
+    <t>http://purl.org/adms/publishertype/1.0</t>
+  </si>
+  <si>
+    <t>NationalAuthority</t>
+  </si>
+  <si>
+    <t>National authority</t>
+  </si>
+  <si>
+    <t>Rijksoverheid</t>
+  </si>
+  <si>
+    <t>http://purl.org/adms/changetype/1.0</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Aangemaakt</t>
+  </si>
+  <si>
+    <t>Bijgewerkt</t>
+  </si>
+  <si>
+    <t>Verwijderd</t>
+  </si>
+  <si>
+    <t>http://purl.org/adms/changetype/{waarde}</t>
+  </si>
+  <si>
+    <t>PublisherType</t>
+  </si>
+  <si>
+    <t>LicenceType</t>
+  </si>
+  <si>
+    <t>http://purl.org/adms/licencetype/1.0</t>
+  </si>
+  <si>
+    <t>ADMS licence type vocabulary</t>
+  </si>
+  <si>
+    <t>&lt;No controlled vocabulary established&gt;</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1980,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1487,21 +1991,21 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,7 +2016,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1526,7 +2030,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1534,75 +2038,78 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" t="s">
         <v>307</v>
       </c>
-      <c r="C9" t="s">
-        <v>314</v>
-      </c>
       <c r="D9" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>300</v>
+      </c>
+      <c r="C10" t="s">
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
+        <v>506</v>
+      </c>
+      <c r="G10" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,10 +2120,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,10 +2134,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1641,10 +2148,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,63 +2162,60 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,10 +2226,10 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,10 +2240,10 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,11 +2253,11 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>101</v>
+      <c r="D21" t="s">
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,10 +2268,10 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1778,10 +2282,10 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,11 +2295,11 @@
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>336</v>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>337</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1803,80 +2307,77 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>337</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1901,13 +2402,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1915,133 +2416,133 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="D34" t="s">
-        <v>301</v>
+      <c r="D34" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="E36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="E38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>298</v>
-      </c>
-      <c r="F41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>299</v>
+      <c r="D42" t="s">
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2049,13 +2550,13 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2063,46 +2564,155 @@
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>323</v>
+      </c>
+      <c r="F49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>456</v>
+      </c>
+      <c r="F50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>337</v>
+      </c>
+      <c r="D52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>319</v>
+      </c>
+      <c r="B53" t="s">
+        <v>320</v>
+      </c>
+      <c r="D53" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>306</v>
       </c>
-      <c r="D45" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>326</v>
-      </c>
-      <c r="B46" t="s">
-        <v>327</v>
-      </c>
-      <c r="D46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B54" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>306</v>
       </c>
-      <c r="D47" t="s">
-        <v>308</v>
-      </c>
-      <c r="G47" t="s">
-        <v>123</v>
+      <c r="B55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" t="s">
+        <v>496</v>
+      </c>
+      <c r="G55" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -2113,16 +2723,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2151,16 +2763,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
@@ -2168,7 +2780,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -2180,23 +2792,23 @@
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
@@ -2204,37 +2816,37 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2244,13 +2856,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2258,13 +2870,16 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,16 +2887,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2289,16 +2901,16 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2306,47 +2918,44 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>331</v>
+      </c>
+      <c r="E11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2354,16 +2963,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2371,13 +2980,16 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,13 +2997,16 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,13 +3014,13 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2413,13 +3028,13 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,16 +3042,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2444,13 +3056,13 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2458,13 +3070,16 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,165 +3087,224 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>338</v>
-      </c>
-      <c r="E22" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>331</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" t="s">
-        <v>340</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>148</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>306</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>323</v>
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +3316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2653,24 +3329,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2680,11 +3356,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2693,11 +3367,12 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -2709,12 +3384,18 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2728,149 +3409,203 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
         <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -2879,208 +3614,381 @@
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>351</v>
+      </c>
+      <c r="G15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
         <v>129</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E23" t="s">
         <v>130</v>
       </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="F23" t="s">
+        <v>351</v>
+      </c>
+      <c r="G23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
         <v>131</v>
       </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
         <v>131</v>
       </c>
-      <c r="E19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
+      <c r="E24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>455</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
+        <v>455</v>
+      </c>
+      <c r="E27" t="s">
+        <v>457</v>
+      </c>
+      <c r="F27" t="s">
+        <v>338</v>
+      </c>
+      <c r="G27" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -3090,10 +3998,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,9 +4019,9 @@
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -3122,7 +4030,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3140,13 +4048,19 @@
         <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3175,10 +4089,16 @@
         <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3207,10 +4127,16 @@
         <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3239,10 +4165,16 @@
         <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="M4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3253,7 +4185,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -3268,13 +4200,22 @@
         <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3282,7 +4223,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>60</v>
@@ -3303,10 +4244,16 @@
         <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3314,10 +4261,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -3332,13 +4279,19 @@
         <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3346,28 +4299,34 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3375,16 +4334,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>3</v>
@@ -3396,10 +4355,16 @@
         <v>41</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3407,28 +4372,37 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>478</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3436,28 +4410,37 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3465,28 +4448,34 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3494,28 +4483,37 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3523,28 +4521,34 @@
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3552,28 +4556,34 @@
         <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3581,28 +4591,34 @@
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3610,28 +4626,34 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3639,28 +4661,37 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3668,16 +4699,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>18</v>
@@ -3686,10 +4717,16 @@
         <v>17</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3697,16 +4734,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>18</v>
@@ -3715,10 +4752,16 @@
         <v>17</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3726,28 +4769,34 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3755,28 +4804,34 @@
         <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="J22" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3784,28 +4839,34 @@
         <v>17</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3813,16 +4874,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>3</v>
@@ -3831,13 +4892,19 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3845,28 +4912,34 @@
         <v>17</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3874,16 +4947,16 @@
         <v>17</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>18</v>
@@ -3892,10 +4965,16 @@
         <v>17</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3903,28 +4982,37 @@
         <v>17</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K27" t="s">
+        <v>375</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3932,16 +5020,16 @@
         <v>17</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>3</v>
@@ -3953,10 +5041,16 @@
         <v>41</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3964,16 +5058,16 @@
         <v>17</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>3</v>
@@ -3985,44 +5079,56 @@
         <v>41</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="M30" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -4046,85 +5152,106 @@
         <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K32" t="s">
+        <v>473</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>3</v>
@@ -4133,111 +5260,135 @@
         <v>46</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M34" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M36" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M37" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>24</v>
@@ -4252,85 +5403,109 @@
         <v>47</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s">
+        <v>475</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K40" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>3</v>
@@ -4339,79 +5514,97 @@
         <v>46</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>48</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
@@ -4435,18 +5628,24 @@
         <v>41</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
@@ -4464,30 +5663,36 @@
         <v>46</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>18</v>
@@ -4496,21 +5701,27 @@
         <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="L46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
@@ -4525,88 +5736,109 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="L47" t="s">
+        <v>338</v>
+      </c>
+      <c r="M47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" t="s">
         <v>258</v>
       </c>
-      <c r="D48" t="s">
-        <v>264</v>
-      </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L48" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" t="s">
         <v>259</v>
       </c>
-      <c r="D49" t="s">
-        <v>265</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K49" t="s">
+        <v>488</v>
+      </c>
+      <c r="L49" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
         <v>260</v>
       </c>
-      <c r="D50" t="s">
-        <v>266</v>
-      </c>
       <c r="E50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>3</v>
@@ -4615,24 +5847,30 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L50" t="s">
+        <v>345</v>
+      </c>
+      <c r="M50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>24</v>
@@ -4650,21 +5888,27 @@
         <v>41</v>
       </c>
       <c r="J51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L51" t="s">
+        <v>351</v>
+      </c>
+      <c r="M51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
@@ -4679,50 +5923,65 @@
         <v>47</v>
       </c>
       <c r="J52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s">
+        <v>475</v>
+      </c>
+      <c r="L52" t="s">
+        <v>351</v>
+      </c>
+      <c r="M52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L53" t="s">
+        <v>351</v>
+      </c>
+      <c r="M53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
@@ -4740,24 +5999,30 @@
         <v>41</v>
       </c>
       <c r="J54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L54" t="s">
+        <v>351</v>
+      </c>
+      <c r="M54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
@@ -4772,56 +6037,71 @@
         <v>41</v>
       </c>
       <c r="J55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L55" t="s">
+        <v>338</v>
+      </c>
+      <c r="M55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K56" t="s">
+        <v>507</v>
+      </c>
+      <c r="L56" t="s">
+        <v>345</v>
+      </c>
+      <c r="M56" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>18</v>
@@ -4830,15 +6110,21 @@
         <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L57" t="s">
+        <v>338</v>
+      </c>
+      <c r="M57" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
@@ -4862,50 +6148,65 @@
         <v>41</v>
       </c>
       <c r="J58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L58" t="s">
+        <v>338</v>
+      </c>
+      <c r="M58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="K59" t="s">
+        <v>478</v>
+      </c>
+      <c r="L59" t="s">
+        <v>338</v>
+      </c>
+      <c r="M59" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
         <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E60" t="s">
         <v>24</v>
@@ -4923,50 +6224,62 @@
         <v>41</v>
       </c>
       <c r="J60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L60" t="s">
+        <v>338</v>
+      </c>
+      <c r="M60" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D61" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F61" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L61" t="s">
+        <v>345</v>
+      </c>
+      <c r="M61" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
         <v>24</v>
@@ -4981,56 +6294,71 @@
         <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s">
+        <v>345</v>
+      </c>
+      <c r="M62" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L63" t="s">
+        <v>345</v>
+      </c>
+      <c r="M63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>3</v>
@@ -5039,50 +6367,65 @@
         <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L64" t="s">
+        <v>345</v>
+      </c>
+      <c r="M64" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" t="s">
         <v>273</v>
-      </c>
-      <c r="D65" t="s">
-        <v>279</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K65" t="s">
+        <v>468</v>
+      </c>
+      <c r="L65" t="s">
+        <v>345</v>
+      </c>
+      <c r="M65" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
         <v>60</v>
@@ -5100,175 +6443,214 @@
         <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L66" t="s">
+        <v>345</v>
+      </c>
+      <c r="M66" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" t="s">
         <v>274</v>
       </c>
-      <c r="D67" t="s">
-        <v>280</v>
-      </c>
       <c r="E67" t="s">
         <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L67" t="s">
+        <v>351</v>
+      </c>
+      <c r="M67" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" t="s">
         <v>275</v>
       </c>
-      <c r="D68" t="s">
-        <v>281</v>
-      </c>
       <c r="E68" t="s">
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L68" t="s">
+        <v>351</v>
+      </c>
+      <c r="M68" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L69" t="s">
+        <v>351</v>
+      </c>
+      <c r="M69" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E70" t="s">
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L70" t="s">
+        <v>351</v>
+      </c>
+      <c r="M70" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
         <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K71" t="s">
+        <v>480</v>
+      </c>
+      <c r="L71" t="s">
+        <v>351</v>
+      </c>
+      <c r="M71" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D72" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E72" t="s">
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>3</v>
@@ -5280,88 +6662,106 @@
         <v>41</v>
       </c>
       <c r="J72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="L72" t="s">
+        <v>338</v>
+      </c>
+      <c r="M72" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" t="s">
+        <v>71</v>
+      </c>
+      <c r="L73" t="s">
+        <v>338</v>
+      </c>
+      <c r="M73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>448</v>
+      </c>
+      <c r="D74" t="s">
+        <v>449</v>
+      </c>
+      <c r="E74" t="s">
         <v>124</v>
       </c>
-      <c r="C73" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" t="s">
-        <v>285</v>
-      </c>
-      <c r="E73" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>127</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" t="s">
-        <v>103</v>
-      </c>
-      <c r="J73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>80</v>
-      </c>
-      <c r="B74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" t="s">
-        <v>287</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
       <c r="F74" t="s">
-        <v>286</v>
+        <v>448</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
-      </c>
-      <c r="I74" t="s">
-        <v>288</v>
+        <v>455</v>
       </c>
       <c r="J74" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="L74" t="s">
+        <v>338</v>
+      </c>
+      <c r="M74" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>452</v>
       </c>
       <c r="D75" t="s">
-        <v>291</v>
+        <v>451</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>124</v>
       </c>
       <c r="F75" t="s">
-        <v>293</v>
+        <v>451</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>3</v>
@@ -5370,106 +6770,168 @@
         <v>46</v>
       </c>
       <c r="I75" t="s">
+        <v>453</v>
+      </c>
+      <c r="J75" t="s">
+        <v>73</v>
+      </c>
+      <c r="L75" t="s">
+        <v>338</v>
+      </c>
+      <c r="M75" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" t="s">
+        <v>508</v>
+      </c>
+      <c r="L76" t="s">
+        <v>345</v>
+      </c>
+      <c r="M76" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>280</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>282</v>
+      </c>
+      <c r="J77" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" t="s">
+        <v>338</v>
+      </c>
+      <c r="M77" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" t="s">
+        <v>286</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
         <v>55</v>
       </c>
-      <c r="J75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="J78" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" t="s">
+        <v>351</v>
+      </c>
+      <c r="M78" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>81</v>
       </c>
-      <c r="B76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" t="s">
-        <v>294</v>
-      </c>
-      <c r="D76" t="s">
-        <v>295</v>
-      </c>
-      <c r="E76" t="s">
-        <v>292</v>
-      </c>
-      <c r="F76" t="s">
-        <v>296</v>
-      </c>
-      <c r="G76" s="4" t="s">
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" t="s">
+        <v>288</v>
+      </c>
+      <c r="E79" t="s">
+        <v>285</v>
+      </c>
+      <c r="F79" t="s">
+        <v>289</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H79" t="s">
         <v>46</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I79" t="s">
         <v>55</v>
       </c>
-      <c r="J76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>82</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>83</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>80</v>
+      <c r="J79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" t="s">
+        <v>351</v>
+      </c>
+      <c r="M79" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -5482,7 +6944,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,10 +6954,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5503,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5511,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5519,7 +6981,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5527,7 +6989,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5535,47 +6997,47 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5600,10 +7062,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5611,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5619,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5627,7 +7089,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5637,32 +7099,195 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>464</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" t="s">
+        <v>490</v>
+      </c>
+      <c r="C15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>508</v>
+      </c>
+      <c r="B16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5672,15 +7297,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
@@ -5688,72 +7313,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
+++ b/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="521">
   <si>
     <t>uri schema</t>
   </si>
@@ -1563,6 +1563,33 @@
   </si>
   <si>
     <t>&lt;No controlled vocabulary established&gt;</t>
+  </si>
+  <si>
+    <t>valueclass</t>
+  </si>
+  <si>
+    <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>skos:ConceptScheme</t>
+  </si>
+  <si>
+    <t>dct:Frequency</t>
+  </si>
+  <si>
+    <t>dct:Location</t>
+  </si>
+  <si>
+    <t>foaf:Agent</t>
+  </si>
+  <si>
+    <t>dct:LinguisticSystem</t>
+  </si>
+  <si>
+    <t>dct:MediaTypeOrExtent</t>
+  </si>
+  <si>
+    <t>{waardelijst} ({valueclass})</t>
   </si>
 </sst>
 </file>
@@ -2725,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,7 +3036,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3023,7 +3050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3037,7 +3064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3051,7 +3078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3065,7 +3092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3082,7 +3109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3096,7 +3123,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3110,7 +3137,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3127,7 +3154,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3141,7 +3168,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -3155,7 +3182,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -3169,7 +3196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -3183,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -3200,7 +3227,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>319</v>
       </c>
@@ -3214,7 +3241,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -3227,8 +3254,11 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>319</v>
       </c>
@@ -4000,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7099,194 +7129,246 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C2" t="s">
         <v>464</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
       <c r="B3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>466</v>
       </c>
       <c r="B4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" t="s">
         <v>467</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>468</v>
       </c>
       <c r="B5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" t="s">
         <v>467</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>104</v>
       </c>
       <c r="B6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" t="s">
         <v>469</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>473</v>
       </c>
       <c r="B7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" t="s">
         <v>472</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>475</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" t="s">
         <v>474</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>478</v>
       </c>
       <c r="B9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" t="s">
         <v>477</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>480</v>
       </c>
       <c r="B10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" t="s">
         <v>481</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>480</v>
       </c>
       <c r="B11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" t="s">
         <v>483</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>480</v>
       </c>
       <c r="B12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C12" t="s">
         <v>485</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
       <c r="B13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>488</v>
       </c>
       <c r="B14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" t="s">
         <v>489</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" t="s">
         <v>490</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>508</v>
       </c>
       <c r="B16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" t="s">
         <v>510</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>375</v>
       </c>
       <c r="B17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C17" t="s">
         <v>511</v>
       </c>
     </row>

--- a/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
+++ b/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -1049,9 +1049,6 @@
     <t>Letterlijke waarde</t>
   </si>
   <si>
-    <t>An entity that is associated with Catalogues and/or Datasets. If the Agent is an organisation, the use of the Organization Ontology is recommended. See section 7 for a discussion on Agent roles.</t>
-  </si>
-  <si>
     <t>A catalogue or repository that hosts the Datasets being described.</t>
   </si>
   <si>
@@ -1590,6 +1587,9 @@
   </si>
   <si>
     <t>{waardelijst} ({valueclass})</t>
+  </si>
+  <si>
+    <t>An TEST entity that is associated with Catalogues and/or Datasets. If the Agent is an organisation, the use of the Organization Ontology is recommended. See section 7 for a discussion on Agent roles.</t>
   </si>
 </sst>
 </file>
@@ -2133,10 +2133,10 @@
         <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E16" t="s">
         <v>82</v>
@@ -2242,7 +2242,7 @@
         <v>325</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E28" t="s">
         <v>206</v>
@@ -2404,7 +2404,7 @@
         <v>337</v>
       </c>
       <c r="D30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2675,7 +2675,7 @@
         <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F50" t="s">
         <v>206</v>
@@ -2700,7 +2700,7 @@
         <v>337</v>
       </c>
       <c r="D52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,10 +2736,10 @@
         <v>299</v>
       </c>
       <c r="D55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2852,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1"/>
@@ -2982,7 +2982,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3443,7 +3445,7 @@
         <v>338</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3463,10 +3465,10 @@
         <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3486,10 +3488,10 @@
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3512,7 +3514,7 @@
         <v>338</v>
       </c>
       <c r="G5" t="s">
-        <v>340</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,7 +3537,7 @@
         <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3555,10 +3557,10 @@
         <v>98</v>
       </c>
       <c r="F7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G7" t="s">
         <v>345</v>
-      </c>
-      <c r="G7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3578,10 +3580,10 @@
         <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3601,10 +3603,10 @@
         <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3624,10 +3626,10 @@
         <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3647,10 +3649,10 @@
         <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3670,10 +3672,10 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3693,10 +3695,10 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3716,10 +3718,10 @@
         <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3739,10 +3741,10 @@
         <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3762,10 +3764,10 @@
         <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3785,10 +3787,10 @@
         <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3796,7 +3798,7 @@
         <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -3805,13 +3807,13 @@
         <v>216</v>
       </c>
       <c r="E18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G18" t="s">
         <v>367</v>
-      </c>
-      <c r="F18" t="s">
-        <v>351</v>
-      </c>
-      <c r="G18" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3831,10 +3833,10 @@
         <v>123</v>
       </c>
       <c r="F19" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" t="s">
         <v>351</v>
-      </c>
-      <c r="G19" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3854,10 +3856,10 @@
         <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3877,10 +3879,10 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3900,10 +3902,10 @@
         <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3923,10 +3925,10 @@
         <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3943,13 +3945,13 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3972,7 +3974,7 @@
         <v>338</v>
       </c>
       <c r="G25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3995,7 +3997,7 @@
         <v>338</v>
       </c>
       <c r="G26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4003,22 +4005,22 @@
         <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
         <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F27" t="s">
         <v>338</v>
       </c>
       <c r="G27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4030,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,10 +4124,10 @@
         <v>72</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4163,7 +4165,7 @@
         <v>338</v>
       </c>
       <c r="M3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4201,7 +4203,7 @@
         <v>338</v>
       </c>
       <c r="M4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4236,13 +4238,13 @@
         <v>72</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4277,10 +4279,10 @@
         <v>74</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4315,10 +4317,10 @@
         <v>72</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4350,10 +4352,10 @@
         <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4388,10 +4390,10 @@
         <v>72</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4423,13 +4425,13 @@
         <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4461,13 +4463,13 @@
         <v>72</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4499,10 +4501,10 @@
         <v>72</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4534,13 +4536,13 @@
         <v>72</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4572,10 +4574,10 @@
         <v>72</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4607,10 +4609,10 @@
         <v>74</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4642,10 +4644,10 @@
         <v>72</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4677,10 +4679,10 @@
         <v>72</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4715,10 +4717,10 @@
         <v>104</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4750,10 +4752,10 @@
         <v>72</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4785,10 +4787,10 @@
         <v>72</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4820,10 +4822,10 @@
         <v>72</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -4855,10 +4857,10 @@
         <v>72</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -4890,10 +4892,10 @@
         <v>72</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -4928,10 +4930,10 @@
         <v>74</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -4963,10 +4965,10 @@
         <v>72</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -4998,10 +5000,10 @@
         <v>72</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -5033,13 +5035,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -5074,10 +5076,10 @@
         <v>74</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -5112,10 +5114,10 @@
         <v>72</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -5150,7 +5152,7 @@
         <v>338</v>
       </c>
       <c r="M30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -5185,10 +5187,10 @@
         <v>72</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -5220,13 +5222,13 @@
         <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -5258,10 +5260,10 @@
         <v>74</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -5296,10 +5298,10 @@
         <v>74</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -5331,10 +5333,10 @@
         <v>74</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -5366,10 +5368,10 @@
         <v>72</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -5401,10 +5403,10 @@
         <v>72</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5436,13 +5438,13 @@
         <v>72</v>
       </c>
       <c r="K38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5474,10 +5476,10 @@
         <v>72</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5512,10 +5514,10 @@
         <v>111</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5550,10 +5552,10 @@
         <v>74</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5585,10 +5587,10 @@
         <v>74</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5623,10 +5625,10 @@
         <v>117</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5661,10 +5663,10 @@
         <v>72</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5699,10 +5701,10 @@
         <v>74</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5737,7 +5739,7 @@
         <v>338</v>
       </c>
       <c r="M46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5775,7 +5777,7 @@
         <v>338</v>
       </c>
       <c r="M47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5807,10 +5809,10 @@
         <v>74</v>
       </c>
       <c r="L48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5842,13 +5844,13 @@
         <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5883,10 +5885,10 @@
         <v>74</v>
       </c>
       <c r="L50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5921,10 +5923,10 @@
         <v>72</v>
       </c>
       <c r="L51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5956,13 +5958,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5994,10 +5996,10 @@
         <v>74</v>
       </c>
       <c r="L53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -6032,10 +6034,10 @@
         <v>72</v>
       </c>
       <c r="L54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -6073,7 +6075,7 @@
         <v>338</v>
       </c>
       <c r="M55" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -6105,13 +6107,13 @@
         <v>74</v>
       </c>
       <c r="K56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -6146,7 +6148,7 @@
         <v>338</v>
       </c>
       <c r="M57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -6184,7 +6186,7 @@
         <v>338</v>
       </c>
       <c r="M58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -6216,13 +6218,13 @@
         <v>73</v>
       </c>
       <c r="K59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L59" t="s">
         <v>338</v>
       </c>
       <c r="M59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -6260,7 +6262,7 @@
         <v>338</v>
       </c>
       <c r="M60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -6292,10 +6294,10 @@
         <v>74</v>
       </c>
       <c r="L61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -6327,13 +6329,13 @@
         <v>72</v>
       </c>
       <c r="K62" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6365,10 +6367,10 @@
         <v>74</v>
       </c>
       <c r="L63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6403,10 +6405,10 @@
         <v>74</v>
       </c>
       <c r="L64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -6438,13 +6440,13 @@
         <v>72</v>
       </c>
       <c r="K65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -6479,10 +6481,10 @@
         <v>74</v>
       </c>
       <c r="L66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6514,10 +6516,10 @@
         <v>72</v>
       </c>
       <c r="L67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -6549,10 +6551,10 @@
         <v>74</v>
       </c>
       <c r="L68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6584,10 +6586,10 @@
         <v>72</v>
       </c>
       <c r="L69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6619,10 +6621,10 @@
         <v>74</v>
       </c>
       <c r="L70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6654,13 +6656,13 @@
         <v>72</v>
       </c>
       <c r="K71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6698,7 +6700,7 @@
         <v>338</v>
       </c>
       <c r="M72" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6736,7 +6738,7 @@
         <v>338</v>
       </c>
       <c r="M73" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -6747,22 +6749,22 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
+        <v>447</v>
+      </c>
+      <c r="D74" t="s">
         <v>448</v>
-      </c>
-      <c r="D74" t="s">
-        <v>449</v>
       </c>
       <c r="E74" t="s">
         <v>124</v>
       </c>
       <c r="F74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>206</v>
       </c>
       <c r="H74" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J74" t="s">
         <v>73</v>
@@ -6771,7 +6773,7 @@
         <v>338</v>
       </c>
       <c r="M74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6782,16 +6784,16 @@
         <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D75" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E75" t="s">
         <v>124</v>
       </c>
       <c r="F75" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>3</v>
@@ -6800,7 +6802,7 @@
         <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J75" t="s">
         <v>73</v>
@@ -6809,7 +6811,7 @@
         <v>338</v>
       </c>
       <c r="M75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -6841,13 +6843,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -6885,7 +6887,7 @@
         <v>338</v>
       </c>
       <c r="M77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -6920,10 +6922,10 @@
         <v>74</v>
       </c>
       <c r="L78" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -6958,10 +6960,10 @@
         <v>74</v>
       </c>
       <c r="L79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -7131,7 +7133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -7148,7 +7150,7 @@
         <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>59</v>
@@ -7162,10 +7164,10 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D2" t="s">
         <v>301</v>
@@ -7176,38 +7178,38 @@
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" t="s">
         <v>466</v>
       </c>
-      <c r="B4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C4" t="s">
-        <v>467</v>
-      </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7215,161 +7217,161 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" t="s">
         <v>469</v>
-      </c>
-      <c r="D6" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8" t="s">
         <v>475</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C8" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" t="s">
         <v>478</v>
-      </c>
-      <c r="B9" t="s">
-        <v>517</v>
-      </c>
-      <c r="C9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D9" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" t="s">
         <v>480</v>
       </c>
-      <c r="B10" t="s">
-        <v>516</v>
-      </c>
-      <c r="C10" t="s">
-        <v>481</v>
-      </c>
       <c r="D10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" t="s">
         <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" t="s">
         <v>488</v>
       </c>
-      <c r="B14" t="s">
-        <v>513</v>
-      </c>
-      <c r="C14" t="s">
-        <v>489</v>
-      </c>
       <c r="D14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C16" t="s">
+        <v>509</v>
+      </c>
+      <c r="D16" t="s">
         <v>508</v>
-      </c>
-      <c r="B16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C16" t="s">
-        <v>510</v>
-      </c>
-      <c r="D16" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7465,58 +7467,58 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" t="s">
         <v>493</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>494</v>
-      </c>
-      <c r="D6" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" t="s">
         <v>497</v>
       </c>
-      <c r="C7" t="s">
-        <v>498</v>
-      </c>
       <c r="D7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
+++ b/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="7485" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="775">
   <si>
     <t>uri schema</t>
   </si>
@@ -1499,9 +1499,6 @@
     <t>ADMS publisher type vocabulary</t>
   </si>
   <si>
-    <t>Publishertype</t>
-  </si>
-  <si>
     <t>http://purl.org/adms/publishertype/1.0</t>
   </si>
   <si>
@@ -1511,9 +1508,6 @@
     <t>National authority</t>
   </si>
   <si>
-    <t>Rijksoverheid</t>
-  </si>
-  <si>
     <t>http://purl.org/adms/changetype/1.0</t>
   </si>
   <si>
@@ -1590,13 +1584,781 @@
   </si>
   <si>
     <t>An TEST entity that is associated with Catalogues and/or Datasets. If the Agent is an organisation, the use of the Organization Ontology is recommended. See section 7 for a discussion on Agent roles.</t>
+  </si>
+  <si>
+    <t>Academia-ScientificOrganisation</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>IndustryConsortium</t>
+  </si>
+  <si>
+    <t>LocalAuthority</t>
+  </si>
+  <si>
+    <t>NonGovernmentalOrganisation</t>
+  </si>
+  <si>
+    <t>NonProfitOrganisation</t>
+  </si>
+  <si>
+    <t>PrivateIndividual(s)</t>
+  </si>
+  <si>
+    <t>RegionalAuthority</t>
+  </si>
+  <si>
+    <t>StandardisationBody</t>
+  </si>
+  <si>
+    <t>SupraNationalAuthority</t>
+  </si>
+  <si>
+    <t>Academische/wetenschappelijke organisatie</t>
+  </si>
+  <si>
+    <t>Bedrijf</t>
+  </si>
+  <si>
+    <t>Consortium</t>
+  </si>
+  <si>
+    <t>Decentrale overheid</t>
+  </si>
+  <si>
+    <t>Centrale overheid</t>
+  </si>
+  <si>
+    <t>Non-gouvermentele organisatie</t>
+  </si>
+  <si>
+    <t>Non-profit organisatie</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Regionale overheid</t>
+  </si>
+  <si>
+    <t>Standaardisatieorganisatie</t>
+  </si>
+  <si>
+    <t>Multinationale organisatie</t>
+  </si>
+  <si>
+    <t>Academia/Scientific organisation</t>
+  </si>
+  <si>
+    <t>Industry consortium</t>
+  </si>
+  <si>
+    <t>Local Authority</t>
+  </si>
+  <si>
+    <t>Non-Governmental Organisation</t>
+  </si>
+  <si>
+    <t>Non-Profit Organisation</t>
+  </si>
+  <si>
+    <t>Private Individual(s)</t>
+  </si>
+  <si>
+    <t>Regional authority</t>
+  </si>
+  <si>
+    <t>Standardisation body</t>
+  </si>
+  <si>
+    <t>Supra-national authority</t>
+  </si>
+  <si>
+    <t>Attribution</t>
+  </si>
+  <si>
+    <t>PublicDomain</t>
+  </si>
+  <si>
+    <t>ViralEffect-ShareAlike</t>
+  </si>
+  <si>
+    <t>NonCommercialUseOnly</t>
+  </si>
+  <si>
+    <t>NoDerivativeWork</t>
+  </si>
+  <si>
+    <t>RoyaltiesRequired</t>
+  </si>
+  <si>
+    <t>ReservedNames-Endorsement-OfficialStatus</t>
+  </si>
+  <si>
+    <t>NominalCost</t>
+  </si>
+  <si>
+    <t>GrantBack</t>
+  </si>
+  <si>
+    <t>JurisdictionWithinTheEU</t>
+  </si>
+  <si>
+    <t>OtherRestrictiveClauses</t>
+  </si>
+  <si>
+    <t>KnownPatentEncumbrance</t>
+  </si>
+  <si>
+    <t>UnknownIPR</t>
+  </si>
+  <si>
+    <t>Bronvermelding</t>
+  </si>
+  <si>
+    <t>Publiek domein</t>
+  </si>
+  <si>
+    <t>Share alike</t>
+  </si>
+  <si>
+    <t>Uitsluitend niet commercieel gebruik</t>
+  </si>
+  <si>
+    <t>Geen afgeleid werk</t>
+  </si>
+  <si>
+    <t>Royalties vereist</t>
+  </si>
+  <si>
+    <t>Beschermde namen / endorsement / officiële status</t>
+  </si>
+  <si>
+    <t>Nominale kosten</t>
+  </si>
+  <si>
+    <t>Grant back</t>
+  </si>
+  <si>
+    <t>Jurisdictie binnen EU</t>
+  </si>
+  <si>
+    <t>Overige beperkende bepalingen</t>
+  </si>
+  <si>
+    <t>Gepatenteerd</t>
+  </si>
+  <si>
+    <t>Onbekend intellectueel eigendomsrecht</t>
+  </si>
+  <si>
+    <t>Jurisdiction within the EU</t>
+  </si>
+  <si>
+    <t>Known patent encumbrance</t>
+  </si>
+  <si>
+    <t>No derivative work</t>
+  </si>
+  <si>
+    <t>Nominal cost</t>
+  </si>
+  <si>
+    <t>Non-commercial use only</t>
+  </si>
+  <si>
+    <t>Other restrictive clauses</t>
+  </si>
+  <si>
+    <t>Public domain</t>
+  </si>
+  <si>
+    <t>Reserved names / endorsement / official status</t>
+  </si>
+  <si>
+    <t>Royalties required</t>
+  </si>
+  <si>
+    <t>Unknown IPR</t>
+  </si>
+  <si>
+    <t>Viral effect (a.k.a. Share-alike)</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/filetype</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>jaarlijks</t>
+  </si>
+  <si>
+    <t>ANNUAL_2</t>
+  </si>
+  <si>
+    <t>semiannual</t>
+  </si>
+  <si>
+    <t>halfjaarlĳks</t>
+  </si>
+  <si>
+    <t>ANNUAL_3</t>
+  </si>
+  <si>
+    <t>three times a year</t>
+  </si>
+  <si>
+    <t>drie keer per jaar</t>
+  </si>
+  <si>
+    <t>BIENNIAL</t>
+  </si>
+  <si>
+    <t>biennial</t>
+  </si>
+  <si>
+    <t>tweejaarlijks</t>
+  </si>
+  <si>
+    <t>BIMONTHLY</t>
+  </si>
+  <si>
+    <t>bimonthly</t>
+  </si>
+  <si>
+    <t>tweemaandelijks</t>
+  </si>
+  <si>
+    <t>BIWEEKLY</t>
+  </si>
+  <si>
+    <t>biweekly</t>
+  </si>
+  <si>
+    <t>veertiendaags</t>
+  </si>
+  <si>
+    <t>DAILY</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>dagelĳks</t>
+  </si>
+  <si>
+    <t>IRREG</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>onregelmatig</t>
+  </si>
+  <si>
+    <t>MONTHLY</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>maandelijks</t>
+  </si>
+  <si>
+    <t>MONTHLY_2</t>
+  </si>
+  <si>
+    <t>semimonthly</t>
+  </si>
+  <si>
+    <t>twee keer per maand</t>
+  </si>
+  <si>
+    <t>MONTHLY_3</t>
+  </si>
+  <si>
+    <t>three times a month</t>
+  </si>
+  <si>
+    <t>drie keer per maand</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>overige</t>
+  </si>
+  <si>
+    <t>QUARTERLY</t>
+  </si>
+  <si>
+    <t>quarterly</t>
+  </si>
+  <si>
+    <t>driemaandelijks</t>
+  </si>
+  <si>
+    <t>TRIENNIAL</t>
+  </si>
+  <si>
+    <t>triennial</t>
+  </si>
+  <si>
+    <t>driejaarlijks</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>onbekend</t>
+  </si>
+  <si>
+    <t>UPDATE_CONT</t>
+  </si>
+  <si>
+    <t>continuously updated</t>
+  </si>
+  <si>
+    <t>voortdurend geactualiseerd</t>
+  </si>
+  <si>
+    <t>WEEKLY</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>wekelijks</t>
+  </si>
+  <si>
+    <t>WEEKLY_2</t>
+  </si>
+  <si>
+    <t>semiweekly</t>
+  </si>
+  <si>
+    <t>twee keer per week</t>
+  </si>
+  <si>
+    <t>WEEKLY_3</t>
+  </si>
+  <si>
+    <t>three times a week</t>
+  </si>
+  <si>
+    <t>drie keer per week</t>
+  </si>
+  <si>
+    <t>CONT</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>voortdurend</t>
+  </si>
+  <si>
+    <t>DAILY_2</t>
+  </si>
+  <si>
+    <t>twice a day</t>
+  </si>
+  <si>
+    <t>tweemaal per dag</t>
+  </si>
+  <si>
+    <t>NEVER</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>nooit</t>
+  </si>
+  <si>
+    <t>OP_DATPRO</t>
+  </si>
+  <si>
+    <t>Provisional data</t>
+  </si>
+  <si>
+    <t>Voorlopige gegevens</t>
+  </si>
+  <si>
+    <t>waarden</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>ARC_GZ</t>
+  </si>
+  <si>
+    <t>ARC GZ</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>Atom Feed</t>
+  </si>
+  <si>
+    <t>AZW</t>
+  </si>
+  <si>
+    <t>Amazon Kindle eBook</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>Binary Data</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>Bitmap Image File</t>
+  </si>
+  <si>
+    <t>BWF</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>DBF</t>
+  </si>
+  <si>
+    <t>0D0</t>
+  </si>
+  <si>
+    <t>Valencian</t>
+  </si>
+  <si>
+    <t>Valenciaans</t>
+  </si>
+  <si>
+    <t>0E0</t>
+  </si>
+  <si>
+    <t>Montenegrin</t>
+  </si>
+  <si>
+    <t>Montenegrijns</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Arabisch</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>American Sign Language</t>
+  </si>
+  <si>
+    <t>Amerikaanse Gebarentaal</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>Azerbaijani</t>
+  </si>
+  <si>
+    <t>Azerbeidzjaans</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Belarusian</t>
+  </si>
+  <si>
+    <t>Wit-Russisch</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>Bengaals</t>
+  </si>
+  <si>
+    <t>CONSIL</t>
+  </si>
+  <si>
+    <t>Council of the European Union</t>
+  </si>
+  <si>
+    <t>Raad van de Europese Unie</t>
+  </si>
+  <si>
+    <t>COU_EUR</t>
+  </si>
+  <si>
+    <t>Council of Europe</t>
+  </si>
+  <si>
+    <t>Raad van Europa</t>
+  </si>
+  <si>
+    <t>CURIA</t>
+  </si>
+  <si>
+    <t>Court of Justice of the European Union</t>
+  </si>
+  <si>
+    <t>Hof van Justitie van de Europese Unie</t>
+  </si>
+  <si>
+    <t>BENELUX</t>
+  </si>
+  <si>
+    <t>Benelux Union</t>
+  </si>
+  <si>
+    <t>Benelux-unie</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Creative Commons</t>
+  </si>
+  <si>
+    <t>CERN</t>
+  </si>
+  <si>
+    <t>AGRI</t>
+  </si>
+  <si>
+    <t>Agriculture, fisheries, forestry and food</t>
+  </si>
+  <si>
+    <t>Landbouw, visserij, bosbouw en voeding</t>
+  </si>
+  <si>
+    <t>ECON</t>
+  </si>
+  <si>
+    <t>Economy and finance</t>
+  </si>
+  <si>
+    <t>Economie en financiën</t>
+  </si>
+  <si>
+    <t>EDUC</t>
+  </si>
+  <si>
+    <t>Education, culture and sport</t>
+  </si>
+  <si>
+    <t>Onderwijs, cultuur en sport</t>
+  </si>
+  <si>
+    <t>ENER</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>ENVI</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Milieu</t>
+  </si>
+  <si>
+    <t>GOVE</t>
+  </si>
+  <si>
+    <t>Government and public sector</t>
+  </si>
+  <si>
+    <t>Overheid en publieke sector</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Gezondheid</t>
+  </si>
+  <si>
+    <t>INTR</t>
+  </si>
+  <si>
+    <t>International issues</t>
+  </si>
+  <si>
+    <t>Internationale vraagstukken</t>
+  </si>
+  <si>
+    <t>JUST</t>
+  </si>
+  <si>
+    <t>Justice, legal system and public safety</t>
+  </si>
+  <si>
+    <t>Justitie, rechtsstelsel en openbare veiligheid</t>
+  </si>
+  <si>
+    <t>REGI</t>
+  </si>
+  <si>
+    <t>Regions and cities</t>
+  </si>
+  <si>
+    <t>Regio's en steden</t>
+  </si>
+  <si>
+    <t>SOCI</t>
+  </si>
+  <si>
+    <t>Population and society</t>
+  </si>
+  <si>
+    <t>Bevolking en samenleving</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>Science and technology</t>
+  </si>
+  <si>
+    <t>Wetenschap en technologie</t>
+  </si>
+  <si>
+    <t>TRAN</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Vervoer</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>GOVREP_NLD</t>
+  </si>
+  <si>
+    <t>Representatives of the Government of the Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Vertegenwoordigers van de regering van het Koninkrijk der Nederlanden</t>
+  </si>
+  <si>
+    <t>Data theme Named Authority List</t>
+  </si>
+  <si>
+    <t>Data thema</t>
+  </si>
+  <si>
+    <t>data-theme</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Nederland</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Nederlandse Antillen</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>België</t>
+  </si>
+  <si>
+    <t>EUROPE</t>
+  </si>
+  <si>
+    <t>NLD_HAG</t>
+  </si>
+  <si>
+    <t>The Hague</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
+  </si>
+  <si>
+    <t>NLD_AME</t>
+  </si>
+  <si>
+    <t>Amersfoort</t>
+  </si>
+  <si>
+    <t>BEL_BRU</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Brussel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1626,6 +2388,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1644,12 +2413,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1664,8 +2434,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Procent" xfId="3" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
     <cellStyle name="Standaard 3" xfId="2"/>
@@ -2133,7 +2917,7 @@
         <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G10" t="s">
         <v>487</v>
@@ -2736,7 +3520,7 @@
         <v>299</v>
       </c>
       <c r="D55" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G55" t="s">
         <v>487</v>
@@ -3255,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,7 +4172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3514,7 +4298,7 @@
         <v>338</v>
       </c>
       <c r="G5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4032,8 +4816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6107,7 +6891,7 @@
         <v>74</v>
       </c>
       <c r="K56" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L56" t="s">
         <v>344</v>
@@ -6843,7 +7627,7 @@
         <v>74</v>
       </c>
       <c r="K76" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s">
         <v>344</v>
@@ -7131,10 +7915,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7145,12 +7929,12 @@
     <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>59</v>
@@ -7158,13 +7942,19 @@
       <c r="D1" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C2" t="s">
         <v>463</v>
@@ -7172,24 +7962,30 @@
       <c r="D2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
         <v>466</v>
@@ -7197,13 +7993,19 @@
       <c r="D4" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>467</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C5" t="s">
         <v>466</v>
@@ -7211,13 +8013,19 @@
       <c r="D5" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C6" t="s">
         <v>468</v>
@@ -7225,27 +8033,39 @@
       <c r="D6" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>657</v>
+      </c>
+      <c r="F6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C7" t="s">
         <v>471</v>
       </c>
       <c r="D7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="E7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>474</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C8" t="s">
         <v>473</v>
@@ -7253,13 +8073,19 @@
       <c r="D8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>658</v>
+      </c>
+      <c r="F8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>477</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
         <v>476</v>
@@ -7267,13 +8093,19 @@
       <c r="D9" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>658</v>
+      </c>
+      <c r="F9">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C10" t="s">
         <v>480</v>
@@ -7281,13 +8113,19 @@
       <c r="D10" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>658</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>479</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C11" t="s">
         <v>482</v>
@@ -7295,13 +8133,19 @@
       <c r="D11" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>658</v>
+      </c>
+      <c r="F11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>479</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C12" t="s">
         <v>484</v>
@@ -7309,58 +8153,82 @@
       <c r="D12" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>658</v>
+      </c>
+      <c r="F12">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>479</v>
       </c>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C13" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>487</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C14" t="s">
         <v>488</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="E14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C15" t="s">
         <v>489</v>
       </c>
       <c r="D15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="E15" t="s">
+        <v>657</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" t="s">
         <v>507</v>
       </c>
-      <c r="B16" t="s">
-        <v>512</v>
-      </c>
-      <c r="C16" t="s">
-        <v>509</v>
-      </c>
       <c r="D16" t="s">
-        <v>508</v>
+        <v>506</v>
+      </c>
+      <c r="E16" t="s">
+        <v>657</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7368,10 +8236,10 @@
         <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -7381,31 +8249,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7467,16 +8333,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D6" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7487,10 +8353,10 @@
         <v>496</v>
       </c>
       <c r="C7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7498,30 +8364,1336 @@
         <v>487</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C9" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="D9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>504</v>
+      </c>
+      <c r="B10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" t="s">
+        <v>544</v>
+      </c>
+      <c r="D15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>504</v>
+      </c>
+      <c r="B16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>504</v>
+      </c>
+      <c r="B17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D19" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B20" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" t="s">
+        <v>549</v>
+      </c>
+      <c r="D20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" t="s">
+        <v>550</v>
+      </c>
+      <c r="C21" t="s">
+        <v>581</v>
+      </c>
+      <c r="D21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>505</v>
+      </c>
+      <c r="B22" t="s">
+        <v>551</v>
+      </c>
+      <c r="C22" t="s">
+        <v>585</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" t="s">
+        <v>552</v>
+      </c>
+      <c r="C23" t="s">
+        <v>579</v>
+      </c>
+      <c r="D23" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B24" t="s">
+        <v>553</v>
+      </c>
+      <c r="C24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>505</v>
+      </c>
+      <c r="B25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C25" t="s">
+        <v>583</v>
+      </c>
+      <c r="D25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>505</v>
+      </c>
+      <c r="B26" t="s">
+        <v>555</v>
+      </c>
+      <c r="C26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D26" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>505</v>
+      </c>
+      <c r="B27" t="s">
+        <v>556</v>
+      </c>
+      <c r="C27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>505</v>
+      </c>
+      <c r="B28" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" t="s">
+        <v>570</v>
+      </c>
+      <c r="D28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" t="s">
+        <v>558</v>
+      </c>
+      <c r="C29" t="s">
+        <v>575</v>
+      </c>
+      <c r="D29" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C30" t="s">
+        <v>580</v>
+      </c>
+      <c r="D30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>505</v>
+      </c>
+      <c r="B31" t="s">
+        <v>560</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="D31" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>505</v>
+      </c>
+      <c r="B32" t="s">
+        <v>561</v>
+      </c>
+      <c r="C32" t="s">
+        <v>584</v>
+      </c>
+      <c r="D32" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>472</v>
+      </c>
+      <c r="B56" t="s">
+        <v>653</v>
+      </c>
+      <c r="C56" t="s">
+        <v>654</v>
+      </c>
+      <c r="D56" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>472</v>
+      </c>
+      <c r="B57" t="s">
+        <v>659</v>
+      </c>
+      <c r="C57" t="s">
+        <v>659</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>472</v>
+      </c>
+      <c r="B58" t="s">
+        <v>660</v>
+      </c>
+      <c r="C58" t="s">
+        <v>661</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>472</v>
+      </c>
+      <c r="B59" t="s">
+        <v>662</v>
+      </c>
+      <c r="C59" t="s">
+        <v>663</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>664</v>
+      </c>
+      <c r="C60" t="s">
+        <v>665</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>472</v>
+      </c>
+      <c r="B61" t="s">
+        <v>666</v>
+      </c>
+      <c r="C61" t="s">
+        <v>667</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>472</v>
+      </c>
+      <c r="B62" t="s">
+        <v>668</v>
+      </c>
+      <c r="C62" t="s">
+        <v>669</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>472</v>
+      </c>
+      <c r="B63" t="s">
+        <v>670</v>
+      </c>
+      <c r="C63" t="s">
+        <v>670</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>472</v>
+      </c>
+      <c r="B64" t="s">
+        <v>671</v>
+      </c>
+      <c r="C64" t="s">
+        <v>671</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>472</v>
+      </c>
+      <c r="B65" t="s">
+        <v>672</v>
+      </c>
+      <c r="C65" t="s">
+        <v>672</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>472</v>
+      </c>
+      <c r="B66" t="s">
+        <v>673</v>
+      </c>
+      <c r="C66" t="s">
+        <v>673</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>474</v>
+      </c>
+      <c r="B67" t="s">
+        <v>674</v>
+      </c>
+      <c r="C67" t="s">
+        <v>675</v>
+      </c>
+      <c r="D67" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="C68" t="s">
+        <v>678</v>
+      </c>
+      <c r="D68" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69" t="s">
+        <v>680</v>
+      </c>
+      <c r="C69" t="s">
+        <v>681</v>
+      </c>
+      <c r="D69" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>474</v>
+      </c>
+      <c r="B70" t="s">
+        <v>683</v>
+      </c>
+      <c r="C70" t="s">
+        <v>684</v>
+      </c>
+      <c r="D70" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>474</v>
+      </c>
+      <c r="B71" t="s">
+        <v>686</v>
+      </c>
+      <c r="C71" t="s">
+        <v>687</v>
+      </c>
+      <c r="D71" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>474</v>
+      </c>
+      <c r="B72" t="s">
+        <v>689</v>
+      </c>
+      <c r="C72" t="s">
+        <v>690</v>
+      </c>
+      <c r="D72" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>474</v>
+      </c>
+      <c r="B73" t="s">
+        <v>692</v>
+      </c>
+      <c r="C73" t="s">
+        <v>693</v>
+      </c>
+      <c r="D73" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>477</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>477</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>477</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>477</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>477</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>465</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>465</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>465</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>465</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>465</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>465</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>465</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>465</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>465</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>465</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>465</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>465</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>465</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>465</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>467</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>479</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>479</v>
+      </c>
+      <c r="B97" t="s">
+        <v>758</v>
+      </c>
+      <c r="C97" t="s">
+        <v>759</v>
+      </c>
+      <c r="D97" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>479</v>
+      </c>
+      <c r="B98" t="s">
+        <v>761</v>
+      </c>
+      <c r="C98" t="s">
+        <v>762</v>
+      </c>
+      <c r="D98" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>479</v>
+      </c>
+      <c r="B99" t="s">
+        <v>689</v>
+      </c>
+      <c r="C99" t="s">
+        <v>764</v>
+      </c>
+      <c r="D99" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>479</v>
+      </c>
+      <c r="B100" t="s">
+        <v>767</v>
+      </c>
+      <c r="C100" t="s">
+        <v>768</v>
+      </c>
+      <c r="D100" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>479</v>
+      </c>
+      <c r="B101" t="s">
+        <v>770</v>
+      </c>
+      <c r="C101" t="s">
+        <v>771</v>
+      </c>
+      <c r="D101" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>479</v>
+      </c>
+      <c r="B102" t="s">
+        <v>772</v>
+      </c>
+      <c r="C102" t="s">
+        <v>773</v>
+      </c>
+      <c r="D102" t="s">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B68" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
+++ b/dcat-ap-eu/DCAT-AP-EU-Profile.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="788">
   <si>
     <t>uri schema</t>
   </si>
@@ -2352,6 +2352,45 @@
   </si>
   <si>
     <t>Brussel</t>
+  </si>
+  <si>
+    <t>MDR Access right Named Authority List</t>
+  </si>
+  <si>
+    <t>AccessRights</t>
+  </si>
+  <si>
+    <t>skos:Cocnept</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/mdr/authority/access-right</t>
+  </si>
+  <si>
+    <t>NON_PUBLIC</t>
+  </si>
+  <si>
+    <t>non-public</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>RESTRICTED</t>
+  </si>
+  <si>
+    <t>restricted</t>
+  </si>
+  <si>
+    <t>niet openbaar</t>
+  </si>
+  <si>
+    <t>openbaar</t>
+  </si>
+  <si>
+    <t>openbaar onder voorwaarden</t>
   </si>
 </sst>
 </file>
@@ -2419,7 +2458,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2440,6 +2479,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -4816,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5391,6 +5432,9 @@
       </c>
       <c r="J15" s="4" t="s">
         <v>74</v>
+      </c>
+      <c r="K15" t="s">
+        <v>776</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>350</v>
@@ -7915,10 +7959,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8231,7 +8275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>374</v>
       </c>
@@ -8240,6 +8284,26 @@
       </c>
       <c r="C17" t="s">
         <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>776</v>
+      </c>
+      <c r="B18" t="s">
+        <v>777</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="D18" t="s">
+        <v>778</v>
+      </c>
+      <c r="E18" t="s">
+        <v>657</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8249,9 +8313,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:D106"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9689,6 +9755,62 @@
         <v>774</v>
       </c>
     </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>776</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="D103" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>776</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="D104" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>776</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="D105" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>776</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="D106" t="s">
+        <v>787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
